--- a/data/ANVEM LYRICST4-2024.xlsx
+++ b/data/ANVEM LYRICST4-2024.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -503,6 +503,8 @@
     <col width="25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -510,6 +512,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -623,8 +626,6 @@
       <c r="F11" s="9" t="n">
         <v>125.6005191</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -1812,7 +1813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E43"/>
@@ -1824,6 +1825,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1831,6 +1834,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1902,7 +1906,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr"/>
       <c r="D11" s="2" t="n">
         <v>195777</v>
       </c>
@@ -2328,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,6 +2343,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -2347,6 +2352,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -2443,6 +2449,7 @@
         <v>1.167e-05</v>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="C14" s="4" t="inlineStr">
         <is>
